--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
   <si>
     <t>id</t>
   </si>
@@ -56,7 +56,7 @@
     <t>msg</t>
   </si>
   <si>
-    <t>d_1</t>
+    <t>DL_1</t>
   </si>
   <si>
     <t>post</t>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.148724</t>
+    <t>0.170068</t>
   </si>
   <si>
     <t>广东赢时科技有限公司</t>
@@ -86,7 +86,10 @@
     <t>pass</t>
   </si>
   <si>
-    <t>d_2</t>
+    <t>'ascii' codec can't decode byte 0xe7 in position 0: ordinal not in range(128)</t>
+  </si>
+  <si>
+    <t>总览_G1</t>
   </si>
   <si>
     <t>get</t>
@@ -101,10 +104,28 @@
     <t>data</t>
   </si>
   <si>
+    <t>0.054806</t>
+  </si>
+  <si>
     <t>操作成功</t>
   </si>
   <si>
-    <t>0.041574</t>
+    <t>总览_G2</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3</t>
+  </si>
+  <si>
+    <t>0.095446</t>
+  </si>
+  <si>
+    <t>总览_G3</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week</t>
+  </si>
+  <si>
+    <t>0.118929</t>
   </si>
 </sst>
 </file>
@@ -440,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,22 +541,25 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -543,14 +567,77 @@
       <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s"/>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
-      <c r="M3" t="s"/>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s"/>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.170068</t>
+    <t>0.175937</t>
   </si>
   <si>
     <t>广东赢时科技有限公司</t>
@@ -86,9 +86,6 @@
     <t>pass</t>
   </si>
   <si>
-    <t>'ascii' codec can't decode byte 0xe7 in position 0: ordinal not in range(128)</t>
-  </si>
-  <si>
     <t>总览_G1</t>
   </si>
   <si>
@@ -104,7 +101,7 @@
     <t>data</t>
   </si>
   <si>
-    <t>0.054806</t>
+    <t>0.033481</t>
   </si>
   <si>
     <t>操作成功</t>
@@ -116,7 +113,7 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3</t>
   </si>
   <si>
-    <t>0.095446</t>
+    <t>0.043435</t>
   </si>
   <si>
     <t>总览_G3</t>
@@ -125,7 +122,25 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week</t>
   </si>
   <si>
-    <t>0.118929</t>
+    <t>0.119288</t>
+  </si>
+  <si>
+    <t>总览_G4</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/index/count</t>
+  </si>
+  <si>
+    <t>0.093686</t>
+  </si>
+  <si>
+    <t>总览_G5</t>
+  </si>
+  <si>
+    <t>http://api.chebaotec.com/washingmanage/n/business/amount/month?pageIndex=1&amp;pageSize=3</t>
+  </si>
+  <si>
+    <t>0.109709</t>
   </si>
 </sst>
 </file>
@@ -461,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,103 +556,147 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="M2" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
       </c>
       <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
         <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
       </c>
       <c r="L3" t="s">
         <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
       </c>
       <c r="H4" t="s">
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J5" t="s"/>
+        <v>35</v>
+      </c>
       <c r="K5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
       </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s"/>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/report/result.xlsx
+++ b/report/result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>id</t>
   </si>
@@ -77,7 +77,7 @@
     <t>200</t>
   </si>
   <si>
-    <t>0.175937</t>
+    <t>0.262983</t>
   </si>
   <si>
     <t>广东赢时科技有限公司</t>
@@ -101,7 +101,7 @@
     <t>data</t>
   </si>
   <si>
-    <t>0.033481</t>
+    <t>0.055934</t>
   </si>
   <si>
     <t>操作成功</t>
@@ -113,7 +113,7 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/user/month?pageIndex=1&amp;pageSize=3</t>
   </si>
   <si>
-    <t>0.043435</t>
+    <t>0.140526</t>
   </si>
   <si>
     <t>总览_G3</t>
@@ -122,7 +122,10 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/index/countdata?formType=week</t>
   </si>
   <si>
-    <t>0.119288</t>
+    <t>0.723766</t>
+  </si>
+  <si>
+    <t>fail</t>
   </si>
   <si>
     <t>总览_G4</t>
@@ -131,7 +134,7 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/index/count</t>
   </si>
   <si>
-    <t>0.093686</t>
+    <t>0.842746</t>
   </si>
   <si>
     <t>总览_G5</t>
@@ -140,7 +143,7 @@
     <t>http://api.chebaotec.com/washingmanage/n/business/amount/month?pageIndex=1&amp;pageSize=3</t>
   </si>
   <si>
-    <t>0.109709</t>
+    <t>0.956421</t>
   </si>
 </sst>
 </file>
@@ -638,18 +641,18 @@
         <v>29</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>27</v>
@@ -658,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
         <v>29</v>
@@ -669,13 +672,13 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -687,7 +690,7 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s"/>
       <c r="K7" t="s">
